--- a/Assets/Resources/CSV/SkillInfo.xlsx
+++ b/Assets/Resources/CSV/SkillInfo.xlsx
@@ -19,66 +19,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <x:si>
-    <x:t>ArrowThrow</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+  <x:si>
+    <x:t>주기적으로 대검(스킬 레벨에 따라 크기 10% 증가)을 소한하여 닿는 적에게 공격력의 percentage%(기본 피해량 120% + 스킬 레벨 * 20%)만큼의 피해 및 생성된 균열(3초 지속)에 적중한 적 0.5초간 기절</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv.level\n주기적으로 무작위 위치에 damage(공격력의 percentage%)만큼의 피해를 주는 범위 공격 및 잔류 검 피격 시 반대 방향으로 날아가 피해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CriticalDamageIncrease</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CriticalRateIncrease</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MovementSpeedIncrease</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DefenseIncrease</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초당 체력 회복량 2 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 크기 10% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경험치 획득량 10% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PercentPerLevel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExpGetIncrease</x:t>
+  </x:si>
+  <x:si>
+    <x:t>치명타 피해량 10% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HealthIncrease</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 속도 10% 증가</x:t>
   </x:si>
   <x:si>
     <x:t>PowerIncrease</x:t>
   </x:si>
   <x:si>
-    <x:t>DefenseIncrease</x:t>
+    <x:t>주기적으로 무작위 위치에 공격력의 percentage%(기본 피해량 60% + 스킬 레벨 * 20%)만큼의 피해를 주는 범위 공격 및 남아 있는 검이 공격 방향으로 날아가 동일한 피해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회전하며 공격력의 percentage%(기본 피해량 40% + 스킬 레벨 * 10%)만큼의 피해를 주는 검을 sword_mass(1 + 스킬 레벨 5 당 1)개 생성 (최대 8개)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>치명타 확률 2.5% 증가(최대 100% 초과 시 초과분의 두배만큼 치명타 피해량 증가)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv.level\n주기적으로 전방에 damage(공격력의 percentage%)만큼의 피해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv.level\n회전하며 damage(공격력의 percentage%)만큼의 피해를 주는 검을 sword_mass개 생성(최대 8개)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AttackSpeedIncrease</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HealthRegenIncrease</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AttackScaleIncrease</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv.level\n주기적으로 throw_mass개의 검을 발사하여 damage(공격력의 percentage%)만큼의 피해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주기적으로 throw_mass개(1 + 스킬 레벨 5 당 1)의 검을 발사하여 공격력의 percentage%(기본 피해량 50% + 스킬 레벨 * 10%)만큼의 피해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv.level\n주기적으로 대검을 소한하여 닿는 적에게 damage(공격력의 percentage%)만큼의 피해 및 생성된 균열에 적중한 적 0.5초간 기절</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WarriorAura</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방어력 10% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력 10% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SwordThrow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력 10% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BaseAttack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Earthquake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동 속도 10 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SwordRain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SwordSpin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DetailExplain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv.level\n주기적으로 대검을 소한하여 닿는 적에게 damage(공격력의 percentage%)만큼의 피해 및 적중한 적 0.5초간 기절</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Percent</x:t>
   </x:si>
   <x:si>
     <x:t>Explain</x:t>
   </x:si>
   <x:si>
-    <x:t>BaseAttack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SwordRain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SwordSpin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경험치 획득량 percentage% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주기적으로 무작위 위치에 damage(공격력의 percentage%)만큼의 피해를 주는 범위 공격, 해당 위치에 머무는 동안 공격력이 increase_mass만큼 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주기적으로 대검을 소한하여 닿는 적에게 damage(공격력의 percentage%)만큼의 피해, 적중한 적 0.5초간 기절</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HealthIncrease</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExpGetIncrease</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주기적으로 전방에 damage(공격력의 percentage%)만큼의 피해</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Earthquake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회전하며 damage(공격력의 percengae%)만큼의 피해를 주는 검을 sword_mass 개 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주기적으로 throw_mass개의 화살을 발사하여 damage(공격력의 percentage%)만큼의 피해</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력 percentage% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방어력 percentage% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력 percentage% 증가</x:t>
+    <x:t>null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주기적으로 전방에 공격력의 percentage%(기본 피해량 90% + 스킬 레벨 * 10%)만큼의 피해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>치명타 확률 2.5% 증가</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -149,17 +221,20 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="Normal" xfId="0" builtinId="0" iLevel="0"/>
-    <x:cellStyle name="표준" xfId="1" builtinId="0" iLevel="0"/>
+    <x:cellStyle name="표준" xfId="1"/>
   </x:cellStyles>
   <x:dxfs count="12">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -819,100 +894,311 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:B10"/>
+  <x:dimension ref="A1:E17"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="C11" activeCellId="0" sqref="C11:C11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="1" max="1" width="20.30078125" customWidth="1"/>
-    <x:col min="2" max="2" width="42.8984375" customWidth="1"/>
+    <x:col min="2" max="2" width="53.69921875" customWidth="1"/>
+    <x:col min="3" max="3" width="82.69921875" customWidth="1"/>
+    <x:col min="4" max="4" width="8.796875" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:5">
       <x:c r="A1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D2" s="1">
+        <x:v>0.90000000000000002</x:v>
+      </x:c>
+      <x:c r="E2" s="1">
+        <x:v>0.10000000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D3" s="1">
+        <x:v>0.59999999999999998</x:v>
+      </x:c>
+      <x:c r="E3" s="1">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D4" s="1">
+        <x:v>0.29999999999999999</x:v>
+      </x:c>
+      <x:c r="E4" s="1">
+        <x:v>0.10000000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D5" s="1">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="E5" s="1">
+        <x:v>0.10000000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D6" s="1">
+        <x:v>1.2</x:v>
+      </x:c>
+      <x:c r="E6" s="1">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D7" s="1">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="E7" s="1">
+        <x:v>0.10000000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B1" t="s">
+      <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
-      <x:c r="A2" s="1" t="s">
+      <x:c r="B11" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="A14" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C15" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E15" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="A16" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" t="s">
+      <x:c r="B16" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C16" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E16" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B7" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B8" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B9" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B10" t="s">
-        <x:v>7</x:v>
+      <x:c r="C17" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
+        <x:v>41</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>